--- a/resources/testData.xlsx
+++ b/resources/testData.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14175" windowHeight="6405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -357,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,6 +394,26 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/resources/testData.xlsx
+++ b/resources/testData.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14220" windowHeight="6405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -357,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,6 +394,46 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/resources/testData.xlsx
+++ b/resources/testData.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14220" windowHeight="6405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>EmpID</t>
   </si>
@@ -46,6 +47,9 @@
   </si>
   <si>
     <t>Chennai</t>
+  </si>
+  <si>
+    <t>Test4</t>
   </si>
 </sst>
 </file>
@@ -384,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,6 +450,20 @@
       </c>
       <c r="D4">
         <v>12000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20177</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/resources/testData.xlsx
+++ b/resources/testData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>EmpID</t>
   </si>
@@ -34,22 +34,7 @@
     <t>Mumbai</t>
   </si>
   <si>
-    <t>Test2</t>
-  </si>
-  <si>
     <t>Test1</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>Test4</t>
   </si>
 </sst>
 </file>
@@ -391,7 +376,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A3" sqref="A3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,7 +400,7 @@
         <v>20171</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -424,48 +409,9 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>20172</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>20173</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>20177</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>32</v>
-      </c>
-    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/testData.xlsx
+++ b/resources/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14220" windowHeight="6405"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14175" windowHeight="6405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>EmpID</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>Test1</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Banglore</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
   </si>
 </sst>
 </file>
@@ -373,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,9 +421,62 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20171</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20171</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20171</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/testData.xlsx
+++ b/resources/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14175" windowHeight="6405"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14175" windowHeight="6405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:N19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
   <si>
     <t>EmpID</t>
   </si>
@@ -387,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,12 +484,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20171</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20171</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20171</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20171</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/resources/testData.xlsx
+++ b/resources/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14220" windowHeight="6405" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14175" windowHeight="6405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
   <si>
     <t>EmpID</t>
   </si>
@@ -385,6 +385,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20173</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20171</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20172</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20173</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>12000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -454,77 +567,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>20171</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>20172</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>20173</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>12000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/resources/testData.xlsx
+++ b/resources/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14175" windowHeight="6405"/>
+    <workbookView xWindow="5730" yWindow="4035" windowWidth="14175" windowHeight="6405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
   <si>
     <t>EmpID</t>
   </si>
@@ -385,9 +385,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20172</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>20173</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>20171</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20172</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20173</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20171</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20172</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20173</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>12000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5:D7"/>
     </sheetView>
   </sheetViews>
@@ -488,77 +643,6 @@
         <v>9</v>
       </c>
       <c r="D7">
-        <v>12000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>20171</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>20172</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>20173</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
         <v>12000</v>
       </c>
     </row>

--- a/resources/testData.xlsx
+++ b/resources/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="4035" windowWidth="14175" windowHeight="6405"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14220" windowHeight="6405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/resources/testData.xlsx
+++ b/resources/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14220" windowHeight="6405"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14175" windowHeight="6405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>EmpID</t>
   </si>
@@ -387,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,90 +449,12 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>20171</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>20172</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>20173</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>20171</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>20172</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>20173</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>12000</v>
-      </c>
-    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -542,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,76 +498,11 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>20172</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>20173</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>20171</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>20172</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>20173</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>12000</v>
-      </c>
-    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
